--- a/florida_hurricanes_new.xlsx
+++ b/florida_hurricanes_new.xlsx
@@ -1,96 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\Hurricane_Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A233D613-B100-4A70-8BEE-7A920C8402D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>landfall intensity</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Opal</t>
-  </si>
-  <si>
-    <t>Charley</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Jeanne</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Wilma</t>
-  </si>
-  <si>
-    <t>Irma</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Ian</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,203 +424,769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>landfall intensity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Great Middle Florida</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>-17661</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Unnamed1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>-10362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1871</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Unnamed2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-9580</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Unnamed3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>-8123</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1877</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Unnamed4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>-6320</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1882</v>
+      </c>
+      <c r="E6" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Unnamed5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>-4153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Unnamed6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>-1908</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E8" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unnamed7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>-1187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unnamed8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2483</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1906</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Unnamed9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3572</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Unnamed10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>6482</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1917</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Unnamed11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>7193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E13" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Great Miami</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>9759</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1926</v>
+      </c>
+      <c r="E14" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Okeechobee</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>10488</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E15" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Unnamed14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>12301</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E16" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C17" s="2" t="n">
+        <v>13030</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E17" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Unnamed16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>16363</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E18" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Unnamed17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>16695</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E19" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Unnamed18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>17427</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E20" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Unnamed19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>17797</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E21" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Unnamed20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>18136</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E22" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Easy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>18511</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E23" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>18554</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E24" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>22169</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E25" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Betsy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>23993</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alma</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>24266</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1966</v>
+      </c>
+      <c r="E27" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Eloise</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>27660</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="E28" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>31292</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C30" s="2" t="n">
         <v>33840</v>
       </c>
-      <c r="D2">
+      <c r="D30" t="n">
         <v>1992</v>
       </c>
-      <c r="E2">
+      <c r="E30" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Opal</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>34976</v>
       </c>
-      <c r="D3">
+      <c r="D31" t="n">
         <v>1995</v>
       </c>
-      <c r="E3">
+      <c r="E31" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Charley</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>38212</v>
       </c>
-      <c r="D4">
+      <c r="D32" t="n">
         <v>2004</v>
       </c>
-      <c r="E4">
+      <c r="E32" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44820</v>
-      </c>
-      <c r="D5">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>38246</v>
+      </c>
+      <c r="D33" t="n">
         <v>2004</v>
       </c>
-      <c r="E5">
+      <c r="E33" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44830</v>
-      </c>
-      <c r="D6">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jeanne</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>38256</v>
+      </c>
+      <c r="D34" t="n">
         <v>2004</v>
       </c>
-      <c r="E6">
+      <c r="E34" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44752</v>
-      </c>
-      <c r="D7">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dennis</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>38543</v>
+      </c>
+      <c r="D35" t="n">
         <v>2005</v>
       </c>
-      <c r="E7">
+      <c r="E35" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44858</v>
-      </c>
-      <c r="D8">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>38649</v>
+      </c>
+      <c r="D36" t="n">
         <v>2005</v>
       </c>
-      <c r="E8">
+      <c r="E36" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44814</v>
-      </c>
-      <c r="D9">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Irma</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D37" t="n">
         <v>2017</v>
       </c>
-      <c r="E9">
+      <c r="E37" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>44844</v>
-      </c>
-      <c r="D10">
+      <c r="C38" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="D38" t="n">
         <v>2018</v>
       </c>
-      <c r="E10">
+      <c r="E38" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="n">
         <v>44832</v>
       </c>
-      <c r="D11">
+      <c r="D39" t="n">
         <v>2022</v>
       </c>
-      <c r="E11">
+      <c r="E39" t="n">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/florida_hurricanes_new.xlsx
+++ b/florida_hurricanes_new.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,36 +467,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Great Middle Florida</t>
+          <t>Eloise</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-17661</v>
+        <v>27660</v>
       </c>
       <c r="D2" t="n">
-        <v>1851</v>
+        <v>1975</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unnamed1</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-10362</v>
+        <v>31292</v>
       </c>
       <c r="D3" t="n">
-        <v>1871</v>
+        <v>1985</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -505,36 +505,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unnamed2</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-9580</v>
+        <v>33840</v>
       </c>
       <c r="D4" t="n">
-        <v>1873</v>
+        <v>1992</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unnamed3</t>
+          <t>Opal</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-8123</v>
+        <v>34976</v>
       </c>
       <c r="D5" t="n">
-        <v>1877</v>
+        <v>1995</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -543,55 +543,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Unnamed4</t>
+          <t>Charley</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-6320</v>
+        <v>38212</v>
       </c>
       <c r="D6" t="n">
-        <v>1882</v>
+        <v>2004</v>
       </c>
       <c r="E6" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Unnamed5</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-4153</v>
+        <v>38246</v>
       </c>
       <c r="D7" t="n">
-        <v>1888</v>
+        <v>2004</v>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Unnamed6</t>
+          <t>Jeanne</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-1908</v>
+        <v>38256</v>
       </c>
       <c r="D8" t="n">
-        <v>1894</v>
+        <v>2004</v>
       </c>
       <c r="E8" t="n">
         <v>105</v>
@@ -600,36 +600,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unnamed7</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-1187</v>
+        <v>38543</v>
       </c>
       <c r="D9" t="n">
-        <v>1896</v>
+        <v>2005</v>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Unnamed8</t>
+          <t>Wilma</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2483</v>
+        <v>38649</v>
       </c>
       <c r="D10" t="n">
-        <v>1906</v>
+        <v>2005</v>
       </c>
       <c r="E10" t="n">
         <v>105</v>
@@ -638,551 +638,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unnamed9</t>
+          <t>Irma</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3572</v>
+        <v>42988</v>
       </c>
       <c r="D11" t="n">
-        <v>1909</v>
+        <v>2017</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unnamed10</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6482</v>
+        <v>43383</v>
       </c>
       <c r="D12" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unnamed11</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7193</v>
+        <v>44832</v>
       </c>
       <c r="D13" t="n">
-        <v>1919</v>
+        <v>2022</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Great Miami</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>9759</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1926</v>
-      </c>
-      <c r="E14" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Okeechobee</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>10488</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1928</v>
-      </c>
-      <c r="E15" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Unnamed14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>12301</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E16" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>13030</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1935</v>
-      </c>
-      <c r="E17" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Unnamed16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>16363</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1944</v>
-      </c>
-      <c r="E18" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Unnamed17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>16695</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1945</v>
-      </c>
-      <c r="E19" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Unnamed18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>17427</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1947</v>
-      </c>
-      <c r="E20" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Unnamed19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>17797</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1948</v>
-      </c>
-      <c r="E21" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Unnamed20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>18136</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1949</v>
-      </c>
-      <c r="E22" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>18511</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E23" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>King</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>18554</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1950</v>
-      </c>
-      <c r="E24" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Donna</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>22169</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1960</v>
-      </c>
-      <c r="E25" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Betsy</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>23993</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1965</v>
-      </c>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Alma</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>24266</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1966</v>
-      </c>
-      <c r="E27" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Eloise</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>27660</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="E28" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>31292</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>33840</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E30" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Opal</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>34976</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Charley</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>38212</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E32" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Ivan</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>38246</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E33" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Jeanne</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>38256</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E34" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Dennis</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>38543</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E35" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Wilma</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>38649</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E36" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Irma</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>42988</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E37" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>43383</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E38" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>44832</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E39" t="n">
         <v>130</v>
       </c>
     </row>

--- a/florida_hurricanes_new.xlsx
+++ b/florida_hurricanes_new.xlsx
@@ -1,40 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\Hurricane_Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E96846-A6DD-4DAA-992E-969F88F2386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="5352" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>landfall intensity</t>
+  </si>
+  <si>
+    <t>Eloise</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>Charley</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Wilma</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +108,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,275 +433,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landfall intensity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eloise</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>27660</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1975</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>31292</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>33840</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1992</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>145</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Opal</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>34976</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1995</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Charley</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>38212</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2004</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>130</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ivan</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>38246</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2004</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>105</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jeanne</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>38256</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2004</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>105</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dennis</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
         <v>38543</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2005</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>105</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Wilma</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
         <v>38649</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2005</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>105</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Irma</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>42988</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>115</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>43383</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>140</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44832</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E13" t="n">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/florida_hurricanes_new.xlsx
+++ b/florida_hurricanes_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\Hurricane_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E96846-A6DD-4DAA-992E-969F88F2386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E25E818-DF0C-4207-B8A9-060CEA9BFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5352" yWindow="1356" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
